--- a/_data/MATICUSDT_4h.xlsx
+++ b/_data/MATICUSDT_4h.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1084"/>
+  <dimension ref="A1:F1127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22081,6 +22081,866 @@
         <v>7793737.1</v>
       </c>
     </row>
+    <row r="1085" spans="1:6">
+      <c r="A1085" s="2">
+        <v>45534.5</v>
+      </c>
+      <c r="B1085">
+        <v>0.4209</v>
+      </c>
+      <c r="C1085">
+        <v>0.4254</v>
+      </c>
+      <c r="D1085">
+        <v>0.399</v>
+      </c>
+      <c r="E1085">
+        <v>0.4016</v>
+      </c>
+      <c r="F1085">
+        <v>29997851.2</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:6">
+      <c r="A1086" s="2">
+        <v>45534.66666666666</v>
+      </c>
+      <c r="B1086">
+        <v>0.4017</v>
+      </c>
+      <c r="C1086">
+        <v>0.4213</v>
+      </c>
+      <c r="D1086">
+        <v>0.4001</v>
+      </c>
+      <c r="E1086">
+        <v>0.4157</v>
+      </c>
+      <c r="F1086">
+        <v>20533705.9</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:6">
+      <c r="A1087" s="2">
+        <v>45534.83333333334</v>
+      </c>
+      <c r="B1087">
+        <v>0.4157</v>
+      </c>
+      <c r="C1087">
+        <v>0.4219</v>
+      </c>
+      <c r="D1087">
+        <v>0.4155</v>
+      </c>
+      <c r="E1087">
+        <v>0.421</v>
+      </c>
+      <c r="F1087">
+        <v>6691947.5</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:6">
+      <c r="A1088" s="2">
+        <v>45535</v>
+      </c>
+      <c r="B1088">
+        <v>0.421</v>
+      </c>
+      <c r="C1088">
+        <v>0.4256</v>
+      </c>
+      <c r="D1088">
+        <v>0.4198</v>
+      </c>
+      <c r="E1088">
+        <v>0.4242</v>
+      </c>
+      <c r="F1088">
+        <v>6566343.9</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:6">
+      <c r="A1089" s="2">
+        <v>45535.16666666666</v>
+      </c>
+      <c r="B1089">
+        <v>0.4242</v>
+      </c>
+      <c r="C1089">
+        <v>0.427</v>
+      </c>
+      <c r="D1089">
+        <v>0.4217</v>
+      </c>
+      <c r="E1089">
+        <v>0.4218</v>
+      </c>
+      <c r="F1089">
+        <v>7189659.9</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:6">
+      <c r="A1090" s="2">
+        <v>45535.33333333334</v>
+      </c>
+      <c r="B1090">
+        <v>0.4218</v>
+      </c>
+      <c r="C1090">
+        <v>0.4244</v>
+      </c>
+      <c r="D1090">
+        <v>0.4181</v>
+      </c>
+      <c r="E1090">
+        <v>0.4224</v>
+      </c>
+      <c r="F1090">
+        <v>7732274.8</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:6">
+      <c r="A1091" s="2">
+        <v>45535.5</v>
+      </c>
+      <c r="B1091">
+        <v>0.4224</v>
+      </c>
+      <c r="C1091">
+        <v>0.4225</v>
+      </c>
+      <c r="D1091">
+        <v>0.4181</v>
+      </c>
+      <c r="E1091">
+        <v>0.4214</v>
+      </c>
+      <c r="F1091">
+        <v>8106743.8</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:6">
+      <c r="A1092" s="2">
+        <v>45535.66666666666</v>
+      </c>
+      <c r="B1092">
+        <v>0.4214</v>
+      </c>
+      <c r="C1092">
+        <v>0.4233</v>
+      </c>
+      <c r="D1092">
+        <v>0.4173</v>
+      </c>
+      <c r="E1092">
+        <v>0.4191</v>
+      </c>
+      <c r="F1092">
+        <v>9010990.6</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:6">
+      <c r="A1093" s="2">
+        <v>45535.83333333334</v>
+      </c>
+      <c r="B1093">
+        <v>0.4191</v>
+      </c>
+      <c r="C1093">
+        <v>0.4198</v>
+      </c>
+      <c r="D1093">
+        <v>0.4179</v>
+      </c>
+      <c r="E1093">
+        <v>0.4194</v>
+      </c>
+      <c r="F1093">
+        <v>1103924.6</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:6">
+      <c r="A1094" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B1094">
+        <v>0.4196</v>
+      </c>
+      <c r="C1094">
+        <v>0.4203</v>
+      </c>
+      <c r="D1094">
+        <v>0.4106</v>
+      </c>
+      <c r="E1094">
+        <v>0.4148</v>
+      </c>
+      <c r="F1094">
+        <v>5573484.6</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:6">
+      <c r="A1095" s="2">
+        <v>45536.16666666666</v>
+      </c>
+      <c r="B1095">
+        <v>0.4148</v>
+      </c>
+      <c r="C1095">
+        <v>0.4149</v>
+      </c>
+      <c r="D1095">
+        <v>0.4057</v>
+      </c>
+      <c r="E1095">
+        <v>0.4106</v>
+      </c>
+      <c r="F1095">
+        <v>10564896.5</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:6">
+      <c r="A1096" s="2">
+        <v>45536.33333333334</v>
+      </c>
+      <c r="B1096">
+        <v>0.4107</v>
+      </c>
+      <c r="C1096">
+        <v>0.4129</v>
+      </c>
+      <c r="D1096">
+        <v>0.4077</v>
+      </c>
+      <c r="E1096">
+        <v>0.4127</v>
+      </c>
+      <c r="F1096">
+        <v>8079995.5</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:6">
+      <c r="A1097" s="2">
+        <v>45536.5</v>
+      </c>
+      <c r="B1097">
+        <v>0.4126</v>
+      </c>
+      <c r="C1097">
+        <v>0.4135</v>
+      </c>
+      <c r="D1097">
+        <v>0.4014</v>
+      </c>
+      <c r="E1097">
+        <v>0.4108</v>
+      </c>
+      <c r="F1097">
+        <v>12415041.6</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:6">
+      <c r="A1098" s="2">
+        <v>45536.66666666666</v>
+      </c>
+      <c r="B1098">
+        <v>0.4108</v>
+      </c>
+      <c r="C1098">
+        <v>0.4124</v>
+      </c>
+      <c r="D1098">
+        <v>0.4072</v>
+      </c>
+      <c r="E1098">
+        <v>0.4084</v>
+      </c>
+      <c r="F1098">
+        <v>2923714.5</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:6">
+      <c r="A1099" s="2">
+        <v>45536.83333333334</v>
+      </c>
+      <c r="B1099">
+        <v>0.4132</v>
+      </c>
+      <c r="C1099">
+        <v>0.4162</v>
+      </c>
+      <c r="D1099">
+        <v>0.3967</v>
+      </c>
+      <c r="E1099">
+        <v>0.4023</v>
+      </c>
+      <c r="F1099">
+        <v>11692533.2</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:6">
+      <c r="A1100" s="2">
+        <v>45537</v>
+      </c>
+      <c r="B1100">
+        <v>0.4022</v>
+      </c>
+      <c r="C1100">
+        <v>0.409</v>
+      </c>
+      <c r="D1100">
+        <v>0.4012</v>
+      </c>
+      <c r="E1100">
+        <v>0.4072</v>
+      </c>
+      <c r="F1100">
+        <v>7675072.3</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:6">
+      <c r="A1101" s="2">
+        <v>45537.16666666666</v>
+      </c>
+      <c r="B1101">
+        <v>0.4073</v>
+      </c>
+      <c r="C1101">
+        <v>0.4083</v>
+      </c>
+      <c r="D1101">
+        <v>0.4002</v>
+      </c>
+      <c r="E1101">
+        <v>0.4015</v>
+      </c>
+      <c r="F1101">
+        <v>12432196</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:6">
+      <c r="A1102" s="2">
+        <v>45537.33333333334</v>
+      </c>
+      <c r="B1102">
+        <v>0.4015</v>
+      </c>
+      <c r="C1102">
+        <v>0.4076</v>
+      </c>
+      <c r="D1102">
+        <v>0.3987</v>
+      </c>
+      <c r="E1102">
+        <v>0.4075</v>
+      </c>
+      <c r="F1102">
+        <v>20689223.7</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:6">
+      <c r="A1103" s="2">
+        <v>45537.5</v>
+      </c>
+      <c r="B1103">
+        <v>0.4056</v>
+      </c>
+      <c r="C1103">
+        <v>0.4061</v>
+      </c>
+      <c r="D1103">
+        <v>0.4005</v>
+      </c>
+      <c r="E1103">
+        <v>0.4009</v>
+      </c>
+      <c r="F1103">
+        <v>3817458.6</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:6">
+      <c r="A1104" s="2">
+        <v>45537.66666666666</v>
+      </c>
+      <c r="B1104">
+        <v>0.4033</v>
+      </c>
+      <c r="C1104">
+        <v>0.4091</v>
+      </c>
+      <c r="D1104">
+        <v>0.4016</v>
+      </c>
+      <c r="E1104">
+        <v>0.4066</v>
+      </c>
+      <c r="F1104">
+        <v>7045033.6</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:6">
+      <c r="A1105" s="2">
+        <v>45537.83333333334</v>
+      </c>
+      <c r="B1105">
+        <v>0.4067</v>
+      </c>
+      <c r="C1105">
+        <v>0.415</v>
+      </c>
+      <c r="D1105">
+        <v>0.4058</v>
+      </c>
+      <c r="E1105">
+        <v>0.4108</v>
+      </c>
+      <c r="F1105">
+        <v>7958755.5</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:6">
+      <c r="A1106" s="2">
+        <v>45538</v>
+      </c>
+      <c r="B1106">
+        <v>0.4108</v>
+      </c>
+      <c r="C1106">
+        <v>0.415</v>
+      </c>
+      <c r="D1106">
+        <v>0.4075</v>
+      </c>
+      <c r="E1106">
+        <v>0.4104</v>
+      </c>
+      <c r="F1106">
+        <v>11459858.4</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:6">
+      <c r="A1107" s="2">
+        <v>45538.16666666666</v>
+      </c>
+      <c r="B1107">
+        <v>0.4103</v>
+      </c>
+      <c r="C1107">
+        <v>0.4129</v>
+      </c>
+      <c r="D1107">
+        <v>0.4094</v>
+      </c>
+      <c r="E1107">
+        <v>0.4126</v>
+      </c>
+      <c r="F1107">
+        <v>11495386.5</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:6">
+      <c r="A1108" s="2">
+        <v>45538.33333333334</v>
+      </c>
+      <c r="B1108">
+        <v>0.4127</v>
+      </c>
+      <c r="C1108">
+        <v>0.4128</v>
+      </c>
+      <c r="D1108">
+        <v>0.4057</v>
+      </c>
+      <c r="E1108">
+        <v>0.4079</v>
+      </c>
+      <c r="F1108">
+        <v>11392803</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:6">
+      <c r="A1109" s="2">
+        <v>45538.5</v>
+      </c>
+      <c r="B1109">
+        <v>0.408</v>
+      </c>
+      <c r="C1109">
+        <v>0.4127</v>
+      </c>
+      <c r="D1109">
+        <v>0.3998</v>
+      </c>
+      <c r="E1109">
+        <v>0.4058</v>
+      </c>
+      <c r="F1109">
+        <v>23738633.9</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:6">
+      <c r="A1110" s="2">
+        <v>45538.66666666666</v>
+      </c>
+      <c r="B1110">
+        <v>0.4058</v>
+      </c>
+      <c r="C1110">
+        <v>0.4072</v>
+      </c>
+      <c r="D1110">
+        <v>0.3982</v>
+      </c>
+      <c r="E1110">
+        <v>0.4031</v>
+      </c>
+      <c r="F1110">
+        <v>10818004.8</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:6">
+      <c r="A1111" s="2">
+        <v>45538.83333333334</v>
+      </c>
+      <c r="B1111">
+        <v>0.4032</v>
+      </c>
+      <c r="C1111">
+        <v>0.4059</v>
+      </c>
+      <c r="D1111">
+        <v>0.3965</v>
+      </c>
+      <c r="E1111">
+        <v>0.3978</v>
+      </c>
+      <c r="F1111">
+        <v>11709498.1</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:6">
+      <c r="A1112" s="2">
+        <v>45539</v>
+      </c>
+      <c r="B1112">
+        <v>0.3978</v>
+      </c>
+      <c r="C1112">
+        <v>0.4003</v>
+      </c>
+      <c r="D1112">
+        <v>0.3781</v>
+      </c>
+      <c r="E1112">
+        <v>0.3893</v>
+      </c>
+      <c r="F1112">
+        <v>26220407</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:6">
+      <c r="A1113" s="2">
+        <v>45539.16666666666</v>
+      </c>
+      <c r="B1113">
+        <v>0.3893</v>
+      </c>
+      <c r="C1113">
+        <v>0.393</v>
+      </c>
+      <c r="D1113">
+        <v>0.3839</v>
+      </c>
+      <c r="E1113">
+        <v>0.3896</v>
+      </c>
+      <c r="F1113">
+        <v>14801008.5</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:6">
+      <c r="A1114" s="2">
+        <v>45539.33333333334</v>
+      </c>
+      <c r="B1114">
+        <v>0.3895</v>
+      </c>
+      <c r="C1114">
+        <v>0.3895</v>
+      </c>
+      <c r="D1114">
+        <v>0.35</v>
+      </c>
+      <c r="E1114">
+        <v>0.3738</v>
+      </c>
+      <c r="F1114">
+        <v>63738551.2</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:6">
+      <c r="A1115" s="2">
+        <v>45539.5</v>
+      </c>
+      <c r="B1115">
+        <v>0.3738</v>
+      </c>
+      <c r="C1115">
+        <v>0.385</v>
+      </c>
+      <c r="D1115">
+        <v>0.3714</v>
+      </c>
+      <c r="E1115">
+        <v>0.3845</v>
+      </c>
+      <c r="F1115">
+        <v>14406219.7</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:6">
+      <c r="A1116" s="2">
+        <v>45539.66666666666</v>
+      </c>
+      <c r="B1116">
+        <v>0.3847</v>
+      </c>
+      <c r="C1116">
+        <v>0.3921</v>
+      </c>
+      <c r="D1116">
+        <v>0.3799</v>
+      </c>
+      <c r="E1116">
+        <v>0.3816</v>
+      </c>
+      <c r="F1116">
+        <v>12677665.9</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:6">
+      <c r="A1117" s="2">
+        <v>45539.83333333334</v>
+      </c>
+      <c r="B1117">
+        <v>0.3816</v>
+      </c>
+      <c r="C1117">
+        <v>0.3846</v>
+      </c>
+      <c r="D1117">
+        <v>0.3791</v>
+      </c>
+      <c r="E1117">
+        <v>0.3814</v>
+      </c>
+      <c r="F1117">
+        <v>5674776.7</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:6">
+      <c r="A1118" s="2">
+        <v>45540</v>
+      </c>
+      <c r="B1118">
+        <v>0.3814</v>
+      </c>
+      <c r="C1118">
+        <v>0.3879</v>
+      </c>
+      <c r="D1118">
+        <v>0.3759</v>
+      </c>
+      <c r="E1118">
+        <v>0.3763</v>
+      </c>
+      <c r="F1118">
+        <v>8645043.699999999</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:6">
+      <c r="A1119" s="2">
+        <v>45540.16666666666</v>
+      </c>
+      <c r="B1119">
+        <v>0.3762</v>
+      </c>
+      <c r="C1119">
+        <v>0.3788</v>
+      </c>
+      <c r="D1119">
+        <v>0.3723</v>
+      </c>
+      <c r="E1119">
+        <v>0.3766</v>
+      </c>
+      <c r="F1119">
+        <v>5673162.9</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:6">
+      <c r="A1120" s="2">
+        <v>45540.33333333334</v>
+      </c>
+      <c r="B1120">
+        <v>0.3766</v>
+      </c>
+      <c r="C1120">
+        <v>0.3854</v>
+      </c>
+      <c r="D1120">
+        <v>0.3637</v>
+      </c>
+      <c r="E1120">
+        <v>0.3664</v>
+      </c>
+      <c r="F1120">
+        <v>13983117.5</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:6">
+      <c r="A1121" s="2">
+        <v>45540.5</v>
+      </c>
+      <c r="B1121">
+        <v>0.3664</v>
+      </c>
+      <c r="C1121">
+        <v>0.3763</v>
+      </c>
+      <c r="D1121">
+        <v>0.362</v>
+      </c>
+      <c r="E1121">
+        <v>0.3691</v>
+      </c>
+      <c r="F1121">
+        <v>13998396.9</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:6">
+      <c r="A1122" s="2">
+        <v>45540.66666666666</v>
+      </c>
+      <c r="B1122">
+        <v>0.3691</v>
+      </c>
+      <c r="C1122">
+        <v>0.3709</v>
+      </c>
+      <c r="D1122">
+        <v>0.3662</v>
+      </c>
+      <c r="E1122">
+        <v>0.3675</v>
+      </c>
+      <c r="F1122">
+        <v>4665462.2</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:6">
+      <c r="A1123" s="2">
+        <v>45540.83333333334</v>
+      </c>
+      <c r="B1123">
+        <v>0.3675</v>
+      </c>
+      <c r="C1123">
+        <v>0.3721</v>
+      </c>
+      <c r="D1123">
+        <v>0.3665</v>
+      </c>
+      <c r="E1123">
+        <v>0.3685</v>
+      </c>
+      <c r="F1123">
+        <v>4382183.4</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:6">
+      <c r="A1124" s="2">
+        <v>45541</v>
+      </c>
+      <c r="B1124">
+        <v>0.3686</v>
+      </c>
+      <c r="C1124">
+        <v>0.374</v>
+      </c>
+      <c r="D1124">
+        <v>0.3625</v>
+      </c>
+      <c r="E1124">
+        <v>0.3703</v>
+      </c>
+      <c r="F1124">
+        <v>6610582.1</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:6">
+      <c r="A1125" s="2">
+        <v>45541.16666666666</v>
+      </c>
+      <c r="B1125">
+        <v>0.3702</v>
+      </c>
+      <c r="C1125">
+        <v>0.3747</v>
+      </c>
+      <c r="D1125">
+        <v>0.3696</v>
+      </c>
+      <c r="E1125">
+        <v>0.3701</v>
+      </c>
+      <c r="F1125">
+        <v>7253159.5</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:6">
+      <c r="A1126" s="2">
+        <v>45541.33333333334</v>
+      </c>
+      <c r="B1126">
+        <v>0.37</v>
+      </c>
+      <c r="C1126">
+        <v>0.3725</v>
+      </c>
+      <c r="D1126">
+        <v>0.3693</v>
+      </c>
+      <c r="E1126">
+        <v>0.3705</v>
+      </c>
+      <c r="F1126">
+        <v>5138032.4</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:6">
+      <c r="A1127" s="2">
+        <v>45541.5</v>
+      </c>
+      <c r="B1127">
+        <v>0.3706</v>
+      </c>
+      <c r="C1127">
+        <v>0.3707</v>
+      </c>
+      <c r="D1127">
+        <v>0.3706</v>
+      </c>
+      <c r="E1127">
+        <v>0.3707</v>
+      </c>
+      <c r="F1127">
+        <v>4906</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
